--- a/Shift Code Templates/LAB_template.xlsx
+++ b/Shift Code Templates/LAB_template.xlsx
@@ -80,154 +80,166 @@
       <style:text-properties fo:color="#ffffff" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="bold"/>
     </style:style>
     <style:style style:name="ce4" style:family="table-cell" style:parent-style-name="Normal_5f_CE_5f_hc_5f_march07" style:data-style-name="N8000">
+      <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false" fo:background-color="transparent" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="middle"/>
+      <style:paragraph-properties fo:text-align="center" fo:margin-left="0in" style:writing-mode="page"/>
+      <style:text-properties fo:color="#0000ff" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce5" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:background-color="#000000"/>
+    </style:style>
+    <style:style style:name="ce6" style:family="table-cell" style:parent-style-name="Normal_5f_CE_5f_hc_5f_march07" style:data-style-name="N8000">
+      <style:table-cell-properties fo:background-color="#000000" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="middle"/>
+      <style:paragraph-properties fo:text-align="center" fo:margin-left="0in" style:writing-mode="page"/>
+      <style:text-properties fo:color="#0000ff" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce7" style:family="table-cell" style:parent-style-name="Normal_5f_CE_5f_hc_5f_march07" style:data-style-name="N8000">
       <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false" fo:background-color="transparent" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom"/>
       <style:paragraph-properties fo:text-align="center" fo:margin-left="0in" style:writing-mode="page"/>
       <style:text-properties fo:color="#0000ff" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce5" style:family="table-cell" style:parent-style-name="Normal_5f_CE_5f_hc_5f_march07">
+    <style:style style:name="ce8" style:family="table-cell" style:parent-style-name="Normal_5f_CE_5f_hc_5f_march07">
       <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false" fo:background-color="transparent" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom"/>
       <style:paragraph-properties fo:text-align="center" fo:margin-left="0in" style:writing-mode="page"/>
       <style:text-properties fo:color="#0000ff" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce6" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
-      <style:table-cell-properties fo:background-color="#000000" style:cell-protect="none" style:print-content="true" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom"/>
-      <style:paragraph-properties fo:margin-left="0in" style:writing-mode="page"/>
-      <style:text-properties fo:color="#ffffff" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="bold"/>
-    </style:style>
-    <style:style style:name="ce7" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+    <style:style style:name="ce9" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false" fo:background-color="transparent" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom"/>
       <style:paragraph-properties fo:text-align="center" fo:margin-left="0in" style:writing-mode="page"/>
       <style:text-properties fo:color="#3333ff" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce8" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+    <style:style style:name="ce10" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce9" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+    <style:style style:name="ce11" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:table-cell-properties style:cell-protect="none" style:print-content="true" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:background-color="transparent" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom"/>
       <style:paragraph-properties fo:margin-left="0in" style:writing-mode="page"/>
       <style:text-properties fo:color="#008000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce10" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal" style:data-style-name="N119">
+    <style:style style:name="ce12" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal" style:data-style-name="N119">
       <style:table-cell-properties style:cell-protect="none" style:print-content="true" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="value-type" style:repeat-content="false" fo:background-color="transparent" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom"/>
       <style:paragraph-properties fo:margin-left="0in" style:writing-mode="page"/>
       <style:text-properties fo:color="#008000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce11" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+    <style:style style:name="ce13" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:table-cell-properties fo:background-color="#000000" style:cell-protect="none" style:print-content="true" style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="wrap" fo:border="none" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom"/>
       <style:paragraph-properties fo:text-align="center" fo:margin-left="0in" style:writing-mode="page"/>
       <style:text-properties fo:color="#ffffff" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="bold"/>
     </style:style>
-    <style:style style:name="ce12" style:family="table-cell" style:parent-style-name="Normal_5f_CE_5f_hc_5f_march07" style:data-style-name="N8000">
+    <style:style style:name="ce14" style:family="table-cell" style:parent-style-name="Normal_5f_CE_5f_hc_5f_march07" style:data-style-name="N8000">
       <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false" fo:background-color="transparent" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom"/>
       <style:paragraph-properties fo:text-align="start" fo:margin-left="0in" style:writing-mode="page"/>
       <style:text-properties fo:color="#0000ff" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce13" style:family="table-cell" style:parent-style-name="Normal_5f_CE_5f_hc_5f_march07">
+    <style:style style:name="ce15" style:family="table-cell" style:parent-style-name="Normal_5f_CE_5f_hc_5f_march07">
       <style:table-cell-properties fo:background-color="transparent"/>
       <style:text-properties fo:color="#0000ff" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce14" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+    <style:style style:name="ce16" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:table-cell-properties style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:text-align-source="fix" style:repeat-content="false" fo:background-color="transparent" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom"/>
       <style:paragraph-properties fo:text-align="center" fo:margin-left="0in" style:writing-mode="page"/>
       <style:text-properties fo:color="#3333ff" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce15" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+    <style:style style:name="ce17" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:table-cell-properties style:diagonal-bl-tr="none" style:diagonal-tl-br="none" style:rotation-align="none"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce16" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+    <style:style style:name="ce18" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:table-cell-properties style:cell-protect="none" style:print-content="true" style:text-align-source="fix" style:repeat-content="false" fo:background-color="transparent" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom"/>
       <style:paragraph-properties fo:text-align="center" fo:margin-left="0in" style:writing-mode="page"/>
       <style:text-properties fo:color="#008000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce17" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal" style:data-style-name="N119">
+    <style:style style:name="ce19" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal" style:data-style-name="N119">
       <style:table-cell-properties style:cell-protect="none" style:print-content="true" style:text-align-source="fix" style:repeat-content="false" fo:background-color="transparent" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom"/>
       <style:paragraph-properties fo:text-align="center" fo:margin-left="0in" style:writing-mode="page"/>
       <style:text-properties fo:color="#008000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce18" style:family="table-cell" style:parent-style-name="Normal_5f_CE_5f_hc_5f_march07">
+    <style:style style:name="ce20" style:family="table-cell" style:parent-style-name="Normal_5f_CE_5f_hc_5f_march07">
       <style:text-properties fo:color="#0000ff" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce19" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+    <style:style style:name="ce21" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:table-cell-properties style:cell-protect="none" style:print-content="true" style:text-align-source="fix" style:repeat-content="false" fo:background-color="transparent" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="middle"/>
       <style:paragraph-properties fo:text-align="center" fo:margin-left="0in" style:writing-mode="page"/>
       <style:text-properties fo:color="#008000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce20" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+    <style:style style:name="ce22" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:table-cell-properties style:cell-protect="none" style:print-content="true" style:text-align-source="fix" style:repeat-content="false" fo:background-color="transparent" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom"/>
       <style:paragraph-properties fo:text-align="center" fo:margin-left="0in" style:writing-mode="page"/>
       <style:text-properties fo:color="#0000ff" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce21" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal" style:data-style-name="N119">
+    <style:style style:name="ce23" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal" style:data-style-name="N119">
       <style:table-cell-properties style:cell-protect="none" style:print-content="true" style:text-align-source="fix" style:repeat-content="false" fo:background-color="transparent" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="middle"/>
       <style:paragraph-properties fo:text-align="center" fo:margin-left="0in" style:writing-mode="page"/>
       <style:text-properties fo:color="#008000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce22" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal" style:data-style-name="N8000">
+    <style:style style:name="ce24" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal" style:data-style-name="N8000">
       <style:table-cell-properties fo:background-color="#000000" style:cell-protect="none" style:print-content="true" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="middle"/>
       <style:paragraph-properties fo:text-align="center" fo:margin-left="0in" style:writing-mode="page"/>
       <style:text-properties fo:color="#0000ff" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce23" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+    <style:style style:name="ce25" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:table-cell-properties style:cell-protect="none" style:print-content="true" style:text-align-source="value-type" style:repeat-content="false" fo:background-color="transparent" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom"/>
       <style:paragraph-properties fo:margin-left="0in" style:writing-mode="page"/>
       <style:text-properties fo:color="#008000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce24" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal" style:data-style-name="N8000">
+    <style:style style:name="ce26" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal" style:data-style-name="N8000">
       <style:table-cell-properties fo:background-color="#000000" style:cell-protect="none" style:print-content="true" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="middle"/>
       <style:paragraph-properties fo:text-align="center" fo:margin-left="0in" style:writing-mode="page"/>
       <style:text-properties fo:color="#ffffff" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce25" style:family="table-cell" style:parent-style-name="Normal_5f_CE_5f_hc_5f_march07" style:data-style-name="N8000">
-      <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false" fo:background-color="transparent" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="middle"/>
+    <style:style style:name="ce27" style:family="table-cell" style:parent-style-name="Normal_5f_CE_5f_hc_5f_march07">
+      <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom"/>
       <style:paragraph-properties fo:text-align="center" fo:margin-left="0in" style:writing-mode="page"/>
       <style:text-properties fo:color="#0000ff" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce26" style:family="table-cell" style:parent-style-name="Normal_5f_CE_5f_hc_5f_march07">
+    <style:style style:name="ce28" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties style:cell-protect="none" style:print-content="true" style:text-align-source="fix" style:repeat-content="false" fo:background-color="transparent" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="middle"/>
+      <style:paragraph-properties fo:text-align="center" fo:margin-left="0in" style:writing-mode="page"/>
+      <style:text-properties fo:color="#0000ff" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="bold"/>
+    </style:style>
+    <style:style style:name="ce29" style:family="table-cell" style:parent-style-name="Normal_5f_CE_5f_hc_5f_march07">
+      <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="middle"/>
+      <style:paragraph-properties fo:text-align="center" fo:margin-left="0in" style:writing-mode="page"/>
+      <style:text-properties fo:color="#3333ff" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="bold"/>
+    </style:style>
+    <style:style style:name="ce30" style:family="table-cell" style:parent-style-name="Normal_5f_CE_5f_hc_5f_march07">
+      <style:table-cell-properties style:cell-protect="none" style:print-content="true" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="middle"/>
+      <style:paragraph-properties fo:text-align="center" fo:margin-left="0in" style:writing-mode="page"/>
+      <style:text-properties fo:color="#0000ff" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="bold"/>
+    </style:style>
+    <style:style style:name="ce31" style:family="table-cell" style:parent-style-name="Normal_5f_CE_5f_hc_5f_march07">
+      <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="middle"/>
+      <style:paragraph-properties fo:text-align="center" fo:margin-left="0in" style:writing-mode="page"/>
+      <style:text-properties fo:color="#ff0000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="bold"/>
+    </style:style>
+    <style:style style:name="ce32" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties style:cell-protect="none" style:print-content="true" style:text-align-source="fix" style:repeat-content="false" fo:background-color="transparent" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="middle"/>
+      <style:paragraph-properties fo:text-align="center" fo:margin-left="0in" style:writing-mode="page"/>
+      <style:text-properties fo:color="#0000ff" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce33" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom"/>
       <style:paragraph-properties fo:text-align="center" fo:margin-left="0in" style:writing-mode="page"/>
-      <style:text-properties fo:color="#0000ff" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
-    </style:style>
-    <style:style style:name="ce27" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
-      <style:table-cell-properties style:cell-protect="none" style:print-content="true" style:text-align-source="fix" style:repeat-content="false" fo:background-color="transparent" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="middle"/>
-      <style:paragraph-properties fo:text-align="center" fo:margin-left="0in" style:writing-mode="page"/>
-      <style:text-properties fo:color="#0000ff" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="bold"/>
-    </style:style>
-    <style:style style:name="ce28" style:family="table-cell" style:parent-style-name="Normal_5f_CE_5f_hc_5f_march07">
-      <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="middle"/>
-      <style:paragraph-properties fo:text-align="center" fo:margin-left="0in" style:writing-mode="page"/>
-      <style:text-properties fo:color="#3333ff" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="bold"/>
-    </style:style>
-    <style:style style:name="ce29" style:family="table-cell" style:parent-style-name="Normal_5f_CE_5f_hc_5f_march07">
-      <style:table-cell-properties style:cell-protect="none" style:print-content="true" style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="middle"/>
-      <style:paragraph-properties fo:text-align="center" fo:margin-left="0in" style:writing-mode="page"/>
-      <style:text-properties fo:color="#0000ff" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="bold"/>
-    </style:style>
-    <style:style style:name="ce30" style:family="table-cell" style:parent-style-name="Normal_5f_CE_5f_hc_5f_march07">
-      <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="middle"/>
-      <style:paragraph-properties fo:text-align="center" fo:margin-left="0in" style:writing-mode="page"/>
-      <style:text-properties fo:color="#ff0000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="bold" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="bold" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="bold"/>
-    </style:style>
-    <style:style style:name="ce31" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
-      <style:table-cell-properties style:cell-protect="none" style:print-content="true" style:text-align-source="fix" style:repeat-content="false" fo:background-color="transparent" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="middle"/>
-      <style:paragraph-properties fo:text-align="center" fo:margin-left="0in" style:writing-mode="page"/>
-      <style:text-properties fo:color="#0000ff" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
-    </style:style>
-    <style:style style:name="ce32" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
-      <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom"/>
-      <style:paragraph-properties fo:text-align="center" fo:margin-left="0in" style:writing-mode="page"/>
       <style:text-properties fo:color="#000000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce33" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+    <style:style style:name="ce34" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:text-properties fo:color="#ffffff" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce34" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal" style:data-style-name="N119">
+    <style:style style:name="ce35" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties fo:background-color="#000000"/>
+      <style:text-properties fo:color="#ffffff" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce36" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal" style:data-style-name="N119">
       <style:table-cell-properties style:cell-protect="none" style:print-content="true" style:text-align-source="value-type" style:repeat-content="false" fo:background-color="transparent" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom"/>
       <style:paragraph-properties fo:margin-left="0in" style:writing-mode="page"/>
       <style:text-properties fo:color="#008000" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
-    <style:style style:name="ce35" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+    <style:style style:name="ce37" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
       <style:table-cell-properties style:cell-protect="none" style:print-content="true" style:text-align-source="value-type" style:repeat-content="false" fo:background-color="transparent" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom"/>
+      <style:paragraph-properties fo:margin-left="0in" style:writing-mode="page"/>
+      <style:text-properties fo:color="#339966" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
+    </style:style>
+    <style:style style:name="ce38" style:family="table-cell" style:parent-style-name="Excel_20_Built-in_20_Normal">
+      <style:table-cell-properties fo:background-color="#000000" style:cell-protect="none" style:print-content="true" style:text-align-source="value-type" style:repeat-content="false" fo:wrap-option="no-wrap" style:direction="ltr" style:rotation-angle="0" style:rotation-align="none" style:shrink-to-fit="false" style:vertical-align="bottom"/>
       <style:paragraph-properties fo:margin-left="0in" style:writing-mode="page"/>
       <style:text-properties fo:color="#339966" style:text-outline="false" style:text-line-through-style="none" style:font-name="Calibri" fo:font-size="12pt" fo:font-style="normal" fo:text-shadow="none" style:text-underline-style="none" fo:font-weight="normal" style:font-size-asian="12pt" style:font-style-asian="normal" style:font-weight-asian="normal" style:font-name-complex="Calibri" style:font-size-complex="12pt" style:font-style-complex="normal" style:font-weight-complex="normal"/>
     </style:style>
@@ -239,439 +251,442 @@
       </table:calculation-settings>
       <table:table table:name="Sheet1" table:style-name="ta4" table:print="false">
         <office:forms form:automatic-focus="false" form:apply-design-mode="false"/>
-        <table:table-column table:style-name="co2" table:default-cell-style-name="ce8"/>
-        <table:table-column table:style-name="co2" table:default-cell-style-name="ce15"/>
-        <table:table-column table:style-name="co3" table:default-cell-style-name="ce8"/>
-        <table:table-column table:style-name="co4" table:default-cell-style-name="ce8"/>
-        <table:table-column table:style-name="co6" table:number-columns-repeated="9" table:default-cell-style-name="ce8"/>
-        <table:table-column table:style-name="co6" table:default-cell-style-name="ce32"/>
-        <table:table-column table:style-name="co6" table:number-columns-repeated="6" table:default-cell-style-name="ce8"/>
-        <table:table-column table:style-name="co4" table:number-columns-repeated="1004" table:default-cell-style-name="ce8"/>
+        <table:table-column table:style-name="co2" table:default-cell-style-name="ce10"/>
+        <table:table-column table:style-name="co2" table:default-cell-style-name="ce17"/>
+        <table:table-column table:style-name="co3" table:default-cell-style-name="ce10"/>
+        <table:table-column table:style-name="co4" table:default-cell-style-name="ce10"/>
+        <table:table-column table:style-name="co6" table:number-columns-repeated="9" table:default-cell-style-name="ce10"/>
+        <table:table-column table:style-name="co6" table:default-cell-style-name="ce33"/>
+        <table:table-column table:style-name="co6" table:number-columns-repeated="6" table:default-cell-style-name="ce10"/>
+        <table:table-column table:style-name="co4" table:number-columns-repeated="1004" table:default-cell-style-name="ce10"/>
         <table:table-row table:style-name="ro2">
           <table:table-cell table:style-name="ce1" office:value-type="string">
             <text:p>PETC</text:p>
           </table:table-cell>
+          <table:table-cell table:style-name="ce11"/>
+          <table:table-cell table:style-name="ce18"/>
+          <table:table-cell table:style-name="ce21"/>
+          <table:table-cell table:style-name="ce25"/>
+          <table:table-cell table:style-name="ce21"/>
+          <table:table-cell table:style-name="ce25" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce21"/>
+          <table:table-cell table:style-name="ce25" table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce21"/>
+          <table:table-cell table:style-name="ce18"/>
+          <table:table-cell table:style-name="ce21" table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce25" table:number-columns-repeated="1006"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce1" office:value-type="string">
+            <text:p>Shift Code Monitoring </text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce11"/>
+          <table:table-cell table:style-name="ce18"/>
+          <table:table-cell table:style-name="ce21"/>
+          <table:table-cell table:style-name="ce25"/>
+          <table:table-cell table:style-name="ce21"/>
+          <table:table-cell table:style-name="ce25" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce21"/>
+          <table:table-cell table:style-name="ce25" table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce21"/>
+          <table:table-cell table:style-name="ce18"/>
+          <table:table-cell table:style-name="ce21" table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce25" table:number-columns-repeated="1006"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce1" office:value-type="string">
+            <text:p>Attendance Period: Sept 16-30,2011</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce11"/>
+          <table:table-cell table:style-name="ce18"/>
+          <table:table-cell table:style-name="ce22"/>
+          <table:table-cell table:style-name="ce25"/>
+          <table:table-cell table:style-name="ce21"/>
+          <table:table-cell table:style-name="ce25" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce32"/>
+          <table:table-cell table:style-name="ce25" table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce21"/>
+          <table:table-cell table:style-name="ce18"/>
+          <table:table-cell table:style-name="ce21" table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce25" table:number-columns-repeated="1006"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce1"/>
+          <table:table-cell table:style-name="ce11"/>
+          <table:table-cell table:style-name="ce18"/>
+          <table:table-cell table:style-name="ce21"/>
+          <table:table-cell table:style-name="ce25"/>
+          <table:table-cell table:style-name="ce21"/>
+          <table:table-cell table:style-name="ce25" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce21"/>
+          <table:table-cell table:style-name="ce25" table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce21"/>
+          <table:table-cell table:style-name="ce18"/>
+          <table:table-cell table:style-name="ce21" table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce25" table:number-columns-repeated="1006"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro3">
+          <table:table-cell table:style-name="ce2"/>
+          <table:table-cell table:style-name="ce12"/>
+          <table:table-cell table:style-name="ce19"/>
+          <table:table-cell table:style-name="ce23" table:number-columns-repeated="17"/>
+          <table:table-cell table:style-name="ce36" table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro5">
+          <table:table-cell table:style-name="ce3"/>
+          <table:table-cell table:style-name="ce13" office:value-type="string" table:number-columns-spanned="2" table:number-rows-spanned="1">
+            <text:p>PROCESS QUALITY</text:p>
+          </table:table-cell>
+          <table:covered-table-cell table:style-name="ce3"/>
+          <table:table-cell table:style-name="ce3"/>
+          <table:table-cell table:style-name="ce26" table:number-columns-repeated="15"/>
+          <table:table-cell table:style-name="ce34"/>
+          <table:table-cell table:style-name="ce37" table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="35766">
+            <text:p>35766</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce14" office:value-type="string">
+            <text:p>Juarez</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce14" office:value-type="string">
+            <text:p>Ashlynn</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="16"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="40746">
+            <text:p>40746</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce14" office:value-type="string">
+            <text:p>Ryan</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce14" office:value-type="string">
+            <text:p>Parker</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="16"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro5">
+          <table:table-cell table:style-name="ce5"/>
+          <table:table-cell table:style-name="ce13" office:value-type="string" table:number-columns-spanned="2" table:number-rows-spanned="1">
+            <text:p>PRODUCT MANAGEMENT</text:p>
+          </table:table-cell>
+          <table:covered-table-cell table:style-name="ce3"/>
+          <table:table-cell table:style-name="ce24"/>
+          <table:table-cell table:style-name="ce6" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce26" table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce35"/>
+          <table:table-cell table:style-name="ce38" table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="53941">
+            <text:p>53941</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce14" office:value-type="string">
+            <text:p>Landry</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce14" office:value-type="string">
+            <text:p>Maurice</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="16"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="76244">
+            <text:p>76244</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce14" office:value-type="string">
+            <text:p>Harper</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce14" office:value-type="string">
+            <text:p>Sydnee</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="16"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="97596">
+            <text:p>97596</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce14" office:value-type="string">
+            <text:p>Dalton</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce14" office:value-type="string">
+            <text:p>Kelly</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="16"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="42076">
+            <text:p>42076</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce14" office:value-type="string">
+            <text:p>Gardner</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce14" office:value-type="string">
+            <text:p>Camden</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="16"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="86778">
+            <text:p>86778</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce14" office:value-type="string">
+            <text:p>Chapman</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce14" office:value-type="string">
+            <text:p>Valerie</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="16"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="15927">
+            <text:p>15927</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce14" office:value-type="string">
+            <text:p>Nicholson</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce14" office:value-type="string">
+            <text:p>Braxton</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="16"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro5">
+          <table:table-cell table:style-name="ce6"/>
+          <table:table-cell table:style-name="ce13" office:value-type="string" table:number-columns-spanned="2" table:number-rows-spanned="1">
+            <text:p>LABORATORY</text:p>
+          </table:table-cell>
+          <table:covered-table-cell table:style-name="ce3"/>
+          <table:table-cell table:style-name="ce24"/>
+          <table:table-cell table:style-name="ce6" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce26" table:number-columns-repeated="13"/>
+          <table:table-cell table:style-name="ce35"/>
+          <table:table-cell table:style-name="ce38" table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="34793">
+            <text:p>34793</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce14" office:value-type="string">
+            <text:p>Joseph</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce14" office:value-type="string">
+            <text:p>Jovani</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="16"/>
+          <table:table-cell table:style-name="ce33" table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="61902">
+            <text:p>61902</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce14" office:value-type="string">
+            <text:p>Farrell</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce14" office:value-type="string">
+            <text:p>Erika</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="16"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="59246">
+            <text:p>59246</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce14" office:value-type="string">
+            <text:p>Flynn</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce14" office:value-type="string">
+            <text:p>Iris</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="16"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="38804">
+            <text:p>38804</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce14" office:value-type="string">
+            <text:p>Pittman</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce14" office:value-type="string">
+            <text:p>Talia</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="16"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="28128">
+            <text:p>28128</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce14" office:value-type="string">
+            <text:p>Atkinson</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce14" office:value-type="string">
+            <text:p>Atticus</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="16"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="50540">
+            <text:p>50540</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce14" office:value-type="string">
+            <text:p>Bishop</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce14" office:value-type="string">
+            <text:p>Billy</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="16"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="48349">
+            <text:p>48349</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce14" office:value-type="string">
+            <text:p>Gonzalez</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce14" office:value-type="string">
+            <text:p>Van</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="16"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="91338">
+            <text:p>91338</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce14" office:value-type="string">
+            <text:p>Hoffman</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce14" office:value-type="string">
+            <text:p>Cortez</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="16"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="18279">
+            <text:p>18279</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce14" office:value-type="string">
+            <text:p>Conrad</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce14" office:value-type="string">
+            <text:p>Joy</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="Default"/>
+          <table:table-cell table:style-name="ce4" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce7" table:number-columns-repeated="14"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce7"/>
+          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:style-name="ce20"/>
+          <table:table-cell/>
+          <table:table-cell table:style-name="ce27" table:number-columns-repeated="16"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2" table:number-rows-repeated="7">
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:style-name="ce15" table:number-columns-repeated="2"/>
+          <table:table-cell/>
+          <table:table-cell table:style-name="ce27" table:number-columns-repeated="16"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce7"/>
+          <table:table-cell table:style-name="ce15"/>
+          <table:table-cell table:style-name="ce20"/>
+          <table:table-cell/>
+          <table:table-cell table:style-name="ce27" table:number-columns-repeated="16"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
+          <table:table-cell table:style-name="ce8"/>
+          <table:table-cell table:style-name="ce15" table:number-columns-repeated="2"/>
+          <table:table-cell/>
+          <table:table-cell table:style-name="ce27" table:number-columns-repeated="16"/>
+          <table:table-cell table:number-columns-repeated="1004"/>
+        </table:table-row>
+        <table:table-row table:style-name="ro2">
           <table:table-cell table:style-name="ce9"/>
           <table:table-cell table:style-name="ce16"/>
-          <table:table-cell table:style-name="ce19"/>
-          <table:table-cell table:style-name="ce23"/>
-          <table:table-cell table:style-name="ce19"/>
-          <table:table-cell table:style-name="ce23" table:number-columns-repeated="2"/>
-          <table:table-cell table:style-name="ce19"/>
-          <table:table-cell table:style-name="ce23" table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce19"/>
-          <table:table-cell table:style-name="ce16"/>
-          <table:table-cell table:style-name="ce19" table:number-columns-repeated="4"/>
-          <table:table-cell table:style-name="ce23" table:number-columns-repeated="1006"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce1" office:value-type="string">
-            <text:p>Shift Code Monitoring </text:p>
-          </table:table-cell>
           <table:table-cell table:style-name="ce9"/>
-          <table:table-cell table:style-name="ce16"/>
-          <table:table-cell table:style-name="ce19"/>
-          <table:table-cell table:style-name="ce23"/>
-          <table:table-cell table:style-name="ce19"/>
-          <table:table-cell table:style-name="ce23" table:number-columns-repeated="2"/>
-          <table:table-cell table:style-name="ce19"/>
-          <table:table-cell table:style-name="ce23" table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce19"/>
-          <table:table-cell table:style-name="ce16"/>
-          <table:table-cell table:style-name="ce19" table:number-columns-repeated="4"/>
-          <table:table-cell table:style-name="ce23" table:number-columns-repeated="1006"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce1" office:value-type="string">
-            <text:p>Attendance Period: Sept 16-30,2011</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce9"/>
-          <table:table-cell table:style-name="ce16"/>
-          <table:table-cell table:style-name="ce20"/>
-          <table:table-cell table:style-name="ce23"/>
-          <table:table-cell table:style-name="ce19"/>
-          <table:table-cell table:style-name="ce23" table:number-columns-repeated="2"/>
-          <table:table-cell table:style-name="ce31"/>
-          <table:table-cell table:style-name="ce23" table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce19"/>
-          <table:table-cell table:style-name="ce16"/>
-          <table:table-cell table:style-name="ce19" table:number-columns-repeated="4"/>
-          <table:table-cell table:style-name="ce23" table:number-columns-repeated="1006"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce1"/>
-          <table:table-cell table:style-name="ce9"/>
-          <table:table-cell table:style-name="ce16"/>
-          <table:table-cell table:style-name="ce19"/>
-          <table:table-cell table:style-name="ce23"/>
-          <table:table-cell table:style-name="ce19"/>
-          <table:table-cell table:style-name="ce23" table:number-columns-repeated="2"/>
-          <table:table-cell table:style-name="ce19"/>
-          <table:table-cell table:style-name="ce23" table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce19"/>
-          <table:table-cell table:style-name="ce16"/>
-          <table:table-cell table:style-name="ce19" table:number-columns-repeated="4"/>
-          <table:table-cell table:style-name="ce23" table:number-columns-repeated="1006"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro3">
-          <table:table-cell table:style-name="ce2"/>
-          <table:table-cell table:style-name="ce10"/>
-          <table:table-cell table:style-name="ce17"/>
-          <table:table-cell table:style-name="ce21" table:number-columns-repeated="17"/>
-          <table:table-cell table:style-name="ce34" table:number-columns-repeated="1004"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro5">
-          <table:table-cell table:style-name="ce3"/>
-          <table:table-cell table:style-name="ce11" office:value-type="string" table:number-columns-spanned="2" table:number-rows-spanned="1">
-            <text:p>PROCESS QUALITY</text:p>
-          </table:table-cell>
-          <table:covered-table-cell table:style-name="ce3"/>
-          <table:table-cell table:style-name="ce3"/>
-          <table:table-cell table:style-name="ce24" table:number-columns-repeated="15"/>
-          <table:table-cell table:style-name="ce33"/>
-          <table:table-cell table:style-name="ce35" table:number-columns-repeated="1004"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="11530">
-            <text:p>11530</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce12" office:value-type="string">
-            <text:p>Juarez</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce12" office:value-type="string">
-            <text:p>Ashlynn</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce25" table:number-columns-repeated="16"/>
-          <table:table-cell table:number-columns-repeated="1004"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce5" office:value-type="float" office:value="12732">
-            <text:p>12732</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce12" office:value-type="string">
-            <text:p>Ryan</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce12" office:value-type="string">
-            <text:p>Parker</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce25" table:number-columns-repeated="16"/>
-          <table:table-cell table:number-columns-repeated="1004"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro5">
-          <table:table-cell table:style-name="ce6"/>
-          <table:table-cell table:style-name="ce11" office:value-type="string" table:number-columns-spanned="2" table:number-rows-spanned="1">
-            <text:p>PRODUCT MANAGEMENT</text:p>
-          </table:table-cell>
-          <table:covered-table-cell table:style-name="ce3"/>
-          <table:table-cell table:style-name="ce22"/>
-          <table:table-cell table:style-name="ce24" table:number-columns-repeated="15"/>
-          <table:table-cell table:style-name="ce33"/>
-          <table:table-cell table:style-name="ce35" table:number-columns-repeated="1004"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="15305">
-            <text:p>15305</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce12" office:value-type="string">
-            <text:p>Landry</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce12" office:value-type="string">
-            <text:p>Maurice</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce25" table:number-columns-repeated="16"/>
-          <table:table-cell table:number-columns-repeated="1004"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce5" office:value-type="float" office:value="13837">
-            <text:p>13837</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce12" office:value-type="string">
-            <text:p>Harper</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce12" office:value-type="string">
-            <text:p>Sydnee</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce25" table:number-columns-repeated="16"/>
-          <table:table-cell table:number-columns-repeated="1004"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="13149">
-            <text:p>13149</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce12" office:value-type="string">
-            <text:p>Dalton</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce12" office:value-type="string">
-            <text:p>Kelly</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce25" table:number-columns-repeated="16"/>
-          <table:table-cell table:number-columns-repeated="1004"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce5" office:value-type="float" office:value="7242">
-            <text:p>7242</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce12" office:value-type="string">
-            <text:p>Gardner</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce12" office:value-type="string">
-            <text:p>Camden</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce25" table:number-columns-repeated="16"/>
-          <table:table-cell table:number-columns-repeated="1004"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="10578">
-            <text:p>10578</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce12" office:value-type="string">
-            <text:p>Chapman</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce12" office:value-type="string">
-            <text:p>Valerie</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce25" table:number-columns-repeated="16"/>
-          <table:table-cell table:number-columns-repeated="1004"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce5" office:value-type="float" office:value="9138">
-            <text:p>9138</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce12" office:value-type="string">
-            <text:p>Nicholson</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce12" office:value-type="string">
-            <text:p>Braxton</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce25" table:number-columns-repeated="16"/>
-          <table:table-cell table:number-columns-repeated="1004"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro5">
-          <table:table-cell table:style-name="ce6"/>
-          <table:table-cell table:style-name="ce11" office:value-type="string" table:number-columns-spanned="2" table:number-rows-spanned="1">
-            <text:p>LABORATORY</text:p>
-          </table:table-cell>
-          <table:covered-table-cell table:style-name="ce3"/>
-          <table:table-cell table:style-name="ce22"/>
-          <table:table-cell table:style-name="ce24" table:number-columns-repeated="15"/>
-          <table:table-cell table:style-name="ce33"/>
-          <table:table-cell table:style-name="ce35" table:number-columns-repeated="1004"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="7524">
-            <text:p>7524</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce12" office:value-type="string">
-            <text:p>Joseph</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce12" office:value-type="string">
-            <text:p>Jovani</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce25" table:number-columns-repeated="16"/>
-          <table:table-cell table:style-name="ce32" table:number-columns-repeated="1004"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce5" office:value-type="float" office:value="13365">
-            <text:p>13365</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce12" office:value-type="string">
-            <text:p>Farrell</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce12" office:value-type="string">
-            <text:p>Erika</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce25" table:number-columns-repeated="16"/>
-          <table:table-cell table:number-columns-repeated="1004"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce5" office:value-type="float" office:value="13914">
-            <text:p>13914</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce12" office:value-type="string">
-            <text:p>Flynn</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce12" office:value-type="string">
-            <text:p>Iris</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce25" table:number-columns-repeated="16"/>
-          <table:table-cell table:number-columns-repeated="1004"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce5" office:value-type="float" office:value="3168">
-            <text:p>3168</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce12" office:value-type="string">
-            <text:p>Pittman</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce12" office:value-type="string">
-            <text:p>Talia</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce25" table:number-columns-repeated="16"/>
-          <table:table-cell table:number-columns-repeated="1004"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce5" office:value-type="float" office:value="11509">
-            <text:p>11509</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce12" office:value-type="string">
-            <text:p>Atkinson</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce12" office:value-type="string">
-            <text:p>Atticus</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce25" table:number-columns-repeated="16"/>
-          <table:table-cell table:number-columns-repeated="1004"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce5" office:value-type="float" office:value="12725">
-            <text:p>12725</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce12" office:value-type="string">
-            <text:p>Bishop</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce12" office:value-type="string">
-            <text:p>Billy</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce25" table:number-columns-repeated="16"/>
-          <table:table-cell table:number-columns-repeated="1004"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce5" office:value-type="float" office:value="15389">
-            <text:p>15389</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce12" office:value-type="string">
-            <text:p>Gonzalez</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce12" office:value-type="string">
-            <text:p>Van</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce25" table:number-columns-repeated="16"/>
-          <table:table-cell table:number-columns-repeated="1004"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce5" office:value-type="float" office:value="2600">
-            <text:p>2600</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce12" office:value-type="string">
-            <text:p>Hoffman</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce12" office:value-type="string">
-            <text:p>Cortez</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce25" table:number-columns-repeated="16"/>
-          <table:table-cell table:number-columns-repeated="1004"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce4" office:value-type="float" office:value="1307">
-            <text:p>1307</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce12" office:value-type="string">
-            <text:p>Conrad</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="ce12" office:value-type="string">
-            <text:p>Joy</text:p>
-          </table:table-cell>
-          <table:table-cell table:style-name="Default"/>
-          <table:table-cell table:style-name="ce4" table:number-columns-repeated="16"/>
-          <table:table-cell table:number-columns-repeated="1004"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce4"/>
-          <table:table-cell table:style-name="ce13"/>
-          <table:table-cell table:style-name="ce18"/>
           <table:table-cell/>
-          <table:table-cell table:style-name="ce26" table:number-columns-repeated="16"/>
-          <table:table-cell table:number-columns-repeated="1004"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2" table:number-rows-repeated="7">
-          <table:table-cell table:style-name="ce5"/>
-          <table:table-cell table:style-name="ce13" table:number-columns-repeated="2"/>
-          <table:table-cell/>
-          <table:table-cell table:style-name="ce26" table:number-columns-repeated="16"/>
-          <table:table-cell table:number-columns-repeated="1004"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce4"/>
-          <table:table-cell table:style-name="ce13"/>
-          <table:table-cell table:style-name="ce18"/>
-          <table:table-cell/>
-          <table:table-cell table:style-name="ce26" table:number-columns-repeated="16"/>
-          <table:table-cell table:number-columns-repeated="1004"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce5"/>
-          <table:table-cell table:style-name="ce13" table:number-columns-repeated="2"/>
-          <table:table-cell/>
-          <table:table-cell table:style-name="ce26" table:number-columns-repeated="16"/>
-          <table:table-cell table:number-columns-repeated="1004"/>
-        </table:table-row>
-        <table:table-row table:style-name="ro2">
-          <table:table-cell table:style-name="ce7"/>
-          <table:table-cell table:style-name="ce14"/>
-          <table:table-cell table:style-name="ce7"/>
-          <table:table-cell/>
-          <table:table-cell table:style-name="ce27" table:number-columns-repeated="2"/>
-          <table:table-cell table:style-name="ce28" table:number-columns-repeated="5"/>
-          <table:table-cell table:style-name="ce27" table:number-columns-repeated="2"/>
-          <table:table-cell table:style-name="ce28" table:number-columns-repeated="5"/>
-          <table:table-cell table:style-name="ce27" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce28" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce29" table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce28" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce29" table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce28" table:number-columns-repeated="2"/>
           <table:table-cell table:number-columns-repeated="1004"/>
         </table:table-row>
         <table:table-row table:style-name="ro2" table:number-rows-repeated="2">
           <table:table-cell table:number-columns-repeated="4"/>
-          <table:table-cell table:style-name="ce27" table:number-columns-repeated="2"/>
-          <table:table-cell table:style-name="ce28" table:number-columns-repeated="5"/>
-          <table:table-cell table:style-name="ce27" table:number-columns-repeated="2"/>
-          <table:table-cell table:style-name="ce28" table:number-columns-repeated="5"/>
-          <table:table-cell table:style-name="ce27" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce28" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce29" table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce28" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce29" table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce28" table:number-columns-repeated="2"/>
           <table:table-cell table:number-columns-repeated="1004"/>
         </table:table-row>
         <table:table-row table:style-name="ro2">
           <table:table-cell table:number-columns-repeated="4"/>
-          <table:table-cell table:style-name="ce27" table:number-columns-repeated="2"/>
-          <table:table-cell table:style-name="ce29"/>
-          <table:table-cell table:style-name="ce28" table:number-columns-repeated="3"/>
-          <table:table-cell table:style-name="ce29"/>
-          <table:table-cell table:style-name="ce27" table:number-columns-repeated="2"/>
-          <table:table-cell table:style-name="ce29"/>
-          <table:table-cell table:style-name="ce28" table:number-columns-repeated="4"/>
-          <table:table-cell table:style-name="ce27" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce28" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce30"/>
+          <table:table-cell table:style-name="ce29" table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce30"/>
+          <table:table-cell table:style-name="ce28" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce30"/>
+          <table:table-cell table:style-name="ce29" table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce28" table:number-columns-repeated="2"/>
           <table:table-cell table:number-columns-repeated="1004"/>
         </table:table-row>
         <table:table-row table:style-name="ro2">
           <table:table-cell table:number-columns-repeated="4"/>
-          <table:table-cell table:style-name="ce27" table:number-columns-repeated="2"/>
-          <table:table-cell table:style-name="ce28" table:number-columns-repeated="4"/>
-          <table:table-cell table:style-name="ce29"/>
-          <table:table-cell table:style-name="ce27" table:number-columns-repeated="2"/>
-          <table:table-cell table:style-name="ce28" table:number-columns-repeated="5"/>
-          <table:table-cell table:style-name="ce27" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce28" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce29" table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce30"/>
+          <table:table-cell table:style-name="ce28" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce29" table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce28" table:number-columns-repeated="2"/>
           <table:table-cell table:number-columns-repeated="1004"/>
         </table:table-row>
         <table:table-row table:style-name="ro2">
           <table:table-cell table:number-columns-repeated="4"/>
-          <table:table-cell table:style-name="ce27" table:number-columns-repeated="2"/>
-          <table:table-cell table:style-name="ce30"/>
-          <table:table-cell table:style-name="ce28" table:number-columns-repeated="4"/>
-          <table:table-cell table:style-name="ce27" table:number-columns-repeated="2"/>
-          <table:table-cell table:style-name="ce28" table:number-columns-repeated="5"/>
-          <table:table-cell table:style-name="ce27" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce28" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce31"/>
+          <table:table-cell table:style-name="ce29" table:number-columns-repeated="4"/>
+          <table:table-cell table:style-name="ce28" table:number-columns-repeated="2"/>
+          <table:table-cell table:style-name="ce29" table:number-columns-repeated="5"/>
+          <table:table-cell table:style-name="ce28" table:number-columns-repeated="2"/>
           <table:table-cell table:number-columns-repeated="1004"/>
         </table:table-row>
         <table:table-row table:style-name="ro2" table:number-rows-repeated="1048534">
@@ -707,11 +722,11 @@
 <file path=meta.xml><?xml version="1.0" encoding="utf-8"?>
 <office:document-meta xmlns:office="urn:oasis:names:tc:opendocument:xmlns:office:1.0" xmlns:xlink="http://www.w3.org/1999/xlink" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:meta="urn:oasis:names:tc:opendocument:xmlns:meta:1.0" xmlns:ooo="http://openoffice.org/2004/office" xmlns:grddl="http://www.w3.org/2003/g/data-view#" office:version="1.2">
   <office:meta>
-    <dc:date>2018-11-05T20:06:16.77</dc:date>
+    <dc:date>2018-11-25T10:24:17.79</dc:date>
     <dc:creator>Jason Marc Alegado</dc:creator>
     <meta:generator>OpenOffice/4.0.1$Win32 OpenOffice.org_project/401m5$Build-9714</meta:generator>
-    <meta:editing-duration>PT22S</meta:editing-duration>
-    <meta:editing-cycles>2</meta:editing-cycles>
+    <meta:editing-duration>PT1M53S</meta:editing-duration>
+    <meta:editing-cycles>3</meta:editing-cycles>
     <meta:document-statistic meta:table-count="3" meta:cell-count="57" meta:object-count="0"/>
   </office:meta>
 </office:document-meta>
@@ -730,8 +745,8 @@
           <config:config-item config:name="ViewId" config:type="string">view1</config:config-item>
           <config:config-item-map-named config:name="Tables">
             <config:config-item-map-entry config:name="Sheet1">
-              <config:config-item config:name="CursorPositionX" config:type="int">2</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">24</config:config-item>
+              <config:config-item config:name="CursorPositionX" config:type="int">6</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">21</config:config-item>
               <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
@@ -740,7 +755,7 @@
               <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
-              <config:config-item config:name="PositionBottom" config:type="int">6</config:config-item>
+              <config:config-item config:name="PositionBottom" config:type="int">3</config:config-item>
               <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
               <config:config-item config:name="ZoomValue" config:type="int">100</config:config-item>
               <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
@@ -1059,9 +1074,9 @@
         </style:region-left>
         <style:region-right>
           <text:p>
-            <text:date style:data-style-name="N2" text:date-value="2018-11-05">11/05/2018</text:date>
+            <text:date style:data-style-name="N2" text:date-value="2018-11-25">11/25/2018</text:date>
             , 
-            <text:time>20:06:16</text:time>
+            <text:time>10:24:17</text:time>
           </text:p>
         </style:region-right>
       </style:header>
